--- a/Sufficient data WITH_PO/B083NMK4BB_Optuna_PO_Forecast.xlsx
+++ b/Sufficient data WITH_PO/B083NMK4BB_Optuna_PO_Forecast.xlsx
@@ -454,7 +454,7 @@
         <v>44934.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         <v>44941.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4">
@@ -470,7 +470,7 @@
         <v>44955.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5">
@@ -478,7 +478,7 @@
         <v>44969.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6">
@@ -486,7 +486,7 @@
         <v>44976.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7">
@@ -494,7 +494,7 @@
         <v>45137.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8">
@@ -502,7 +502,7 @@
         <v>45144.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9">
@@ -510,7 +510,7 @@
         <v>45151.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10">
@@ -518,7 +518,7 @@
         <v>45158.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11">
@@ -526,7 +526,7 @@
         <v>45165.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12">
@@ -534,7 +534,7 @@
         <v>45172.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13">
@@ -542,7 +542,7 @@
         <v>45179.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14">
@@ -550,7 +550,7 @@
         <v>45186.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15">
@@ -558,7 +558,7 @@
         <v>45193.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
